--- a/medicine/Soins infirmiers et profession infirmière/1820_en_santé_et_médecine/1820_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1820_en_santé_et_médecine/1820_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1820_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1820_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1820 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1820_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1820_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La « coupe d'Hygie » ou « caducée des pharmaciens », qui aurait figuré en 1222 déjà sur la bannière des apothicaires de Padoue comme emblème de leur profession, apparaît en France, gravé par Jacques-Jean Barre sur le jeton de la Société de pharmacie[1].
-Joseph Bienaimé Caventou et Pierre Joseph Pelletier isolent la cinchonine et la quinine à partir de l'écorce fraiche de quinquina[2].
-Le médecin allemand Christian Friedrich Nasse (en) formule la loi de Nasse: l'hémophilie se manifeste seulement chez les personnes masculines et est transféré par des personnes féminines qui restent sans symptômes[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La « coupe d'Hygie » ou « caducée des pharmaciens », qui aurait figuré en 1222 déjà sur la bannière des apothicaires de Padoue comme emblème de leur profession, apparaît en France, gravé par Jacques-Jean Barre sur le jeton de la Société de pharmacie.
+Joseph Bienaimé Caventou et Pierre Joseph Pelletier isolent la cinchonine et la quinine à partir de l'écorce fraiche de quinquina.
+Le médecin allemand Christian Friedrich Nasse (en) formule la loi de Nasse: l'hémophilie se manifeste seulement chez les personnes masculines et est transféré par des personnes féminines qui restent sans symptômes.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1820_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1820_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12 mai : Florence Nightingale (morte en 1910), infirmière britannique, pionnière des soins infirmiers modernes, de l'utilisation des statistiques dans le domaine de la santé et de la simplification du langage médical[4].
-24 décembre : Joseph-Charles Taché (mort en 1894), écrivain, homme politique, journaliste et médecin québécois[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 mai : Florence Nightingale (morte en 1910), infirmière britannique, pionnière des soins infirmiers modernes, de l'utilisation des statistiques dans le domaine de la santé et de la simplification du langage médical.
+24 décembre : Joseph-Charles Taché (mort en 1894), écrivain, homme politique, journaliste et médecin québécois.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1820_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1820_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 avril :  John Bell (né en 1763), chirurgien écossais[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 avril :  John Bell (né en 1763), chirurgien écossais.</t>
         </is>
       </c>
     </row>
